--- a/charts/war20240914.xlsx
+++ b/charts/war20240914.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,11 @@
           <t>Total Stars</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Clan Stars</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -514,6 +519,9 @@
       <c r="H2" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="I2" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +550,9 @@
       <c r="H3" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="I3" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -570,6 +581,9 @@
       <c r="H4" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="I4" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="H5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="I5" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -626,6 +643,9 @@
       <c r="H6" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="I6" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="H7" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="I7" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -682,6 +705,9 @@
       <c r="H8" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="I8" s="2" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -710,6 +736,9 @@
       <c r="H9" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="I9" s="3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -738,6 +767,9 @@
       <c r="H10" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="I10" s="3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -766,6 +798,9 @@
       <c r="H11" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="I11" s="3" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -794,6 +829,9 @@
       <c r="H12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="I12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -822,6 +860,9 @@
       <c r="H13" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -850,6 +891,9 @@
       <c r="H14" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -878,6 +922,9 @@
       <c r="H15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -904,6 +951,9 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/charts/war20240914.xlsx
+++ b/charts/war20240914.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,9 +27,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <color rgb="00008000"/>
     </font>
     <font>
       <color rgb="00FFFF00"/>
@@ -64,14 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +482,6 @@
           <t>Total Stars</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Clan Stars</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -498,29 +489,26 @@
           <t>mcnasty</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -529,29 +517,26 @@
           <t>Luke</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -560,29 +545,26 @@
           <t>Wreckit Ralph</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -591,29 +573,26 @@
           <t>Tony</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" t="n">
         <v>82.5</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
         <v>65</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -622,29 +601,26 @@
           <t>winston</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" t="n">
         <v>94</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
         <v>88</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -653,29 +629,26 @@
           <t>Ben Dover</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" t="n">
         <v>88</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
         <v>76</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -684,29 +657,26 @@
           <t>Shamrock 2.0</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" t="n">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>77</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" t="n">
         <v>97</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" t="n">
         <v>3</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -715,29 +685,26 @@
           <t>MeekMulli</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>37</v>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -746,29 +713,26 @@
           <t>MewThree</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>37</v>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -777,29 +741,26 @@
           <t>Drippy</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>37</v>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -808,28 +769,25 @@
           <t>NMbaseball22</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -839,28 +797,25 @@
           <t>cordell</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -870,28 +825,25 @@
           <t>Alwayz High</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,28 +853,25 @@
           <t>BigAedo</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,28 +881,25 @@
           <t>noich</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
